--- a/testData/petStoreData.xlsx
+++ b/testData/petStoreData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/techglobal/IdeaProjects/backend-automation/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uluslu/IdeaProjects/backend-automation/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D0DD84-DEE0-1C42-8D4F-8C435F187172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14399341-5E9C-0741-98F9-41E1CDF25491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3460" windowWidth="38400" windowHeight="19960" xr2:uid="{D20F1619-F1A0-DE45-B693-13AAD6387145}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" xr2:uid="{D20F1619-F1A0-DE45-B693-13AAD6387145}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>petId</t>
   </si>
@@ -73,13 +73,16 @@
   </si>
   <si>
     <t>petname</t>
+  </si>
+  <si>
+    <t>addPet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,13 +91,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -109,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -118,16 +130,91 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -136,11 +223,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,69 +561,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAA7A83-B138-0B47-9250-99ED097A0B50}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="7">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
